--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H2">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I2">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J2">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>81.70689530834811</v>
+        <v>465.0697146886625</v>
       </c>
       <c r="R2">
-        <v>735.3620577751331</v>
+        <v>4185.627432197962</v>
       </c>
       <c r="S2">
-        <v>0.01857342946025575</v>
+        <v>0.06765222403136506</v>
       </c>
       <c r="T2">
-        <v>0.01857342946025575</v>
+        <v>0.06765222403136506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H3">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I3">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J3">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>96.39306356015376</v>
+        <v>155.9976932939404</v>
       </c>
       <c r="R3">
-        <v>867.537572041384</v>
+        <v>1403.979239645464</v>
       </c>
       <c r="S3">
-        <v>0.0219118565175679</v>
+        <v>0.02269249224745339</v>
       </c>
       <c r="T3">
-        <v>0.0219118565175679</v>
+        <v>0.02269249224745339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H4">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I4">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J4">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>12.33769658187167</v>
+        <v>26.74359868379344</v>
       </c>
       <c r="R4">
-        <v>111.039269236845</v>
+        <v>240.692388154141</v>
       </c>
       <c r="S4">
-        <v>0.002804577707923495</v>
+        <v>0.003890306920484195</v>
       </c>
       <c r="T4">
-        <v>0.002804577707923495</v>
+        <v>0.003890306920484195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H5">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I5">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J5">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>10.23468884644356</v>
+        <v>8.441209095397999</v>
       </c>
       <c r="R5">
-        <v>92.112199617992</v>
+        <v>75.970881858582</v>
       </c>
       <c r="S5">
-        <v>0.002326526673418511</v>
+        <v>0.001227916053832399</v>
       </c>
       <c r="T5">
-        <v>0.002326526673418511</v>
+        <v>0.001227916053832399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H6">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I6">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J6">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>440.9597845614646</v>
+        <v>511.4800172939532</v>
       </c>
       <c r="R6">
-        <v>3968.638061053182</v>
+        <v>4603.320155645579</v>
       </c>
       <c r="S6">
-        <v>0.1002379961012316</v>
+        <v>0.07440338431992194</v>
       </c>
       <c r="T6">
-        <v>0.1002379961012316</v>
+        <v>0.07440338431992194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.05137633333333</v>
+        <v>63.19878633333334</v>
       </c>
       <c r="H7">
-        <v>117.154129</v>
+        <v>189.596359</v>
       </c>
       <c r="I7">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630559</v>
       </c>
       <c r="J7">
-        <v>0.1500316376309417</v>
+        <v>0.1716302872630558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>18.37626297279678</v>
+        <v>12.12622499518411</v>
       </c>
       <c r="R7">
-        <v>165.386366755171</v>
+        <v>109.136024956657</v>
       </c>
       <c r="S7">
-        <v>0.004177251170544457</v>
+        <v>0.001763963689998869</v>
       </c>
       <c r="T7">
-        <v>0.004177251170544458</v>
+        <v>0.001763963689998869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.651417</v>
       </c>
       <c r="I8">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J8">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>7.428626042745445</v>
+        <v>26.12735545844511</v>
       </c>
       <c r="R8">
-        <v>66.85763438470902</v>
+        <v>235.146199126006</v>
       </c>
       <c r="S8">
-        <v>0.001688658726669966</v>
+        <v>0.003800663962832167</v>
       </c>
       <c r="T8">
-        <v>0.001688658726669966</v>
+        <v>0.003800663962832167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.651417</v>
       </c>
       <c r="I9">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J9">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>8.763862824559112</v>
@@ -1013,10 +1013,10 @@
         <v>78.87476542103201</v>
       </c>
       <c r="S9">
-        <v>0.001992181778012993</v>
+        <v>0.001274851473792771</v>
       </c>
       <c r="T9">
-        <v>0.001992181778012993</v>
+        <v>0.001274851473792771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.651417</v>
       </c>
       <c r="I10">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J10">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>1.121718476631667</v>
+        <v>1.502440358898111</v>
       </c>
       <c r="R10">
-        <v>10.095466289685</v>
+        <v>13.521963230083</v>
       </c>
       <c r="S10">
-        <v>0.0002549865457665376</v>
+        <v>0.0002185552585852295</v>
       </c>
       <c r="T10">
-        <v>0.0002549865457665376</v>
+        <v>0.0002185552585852295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.651417</v>
       </c>
       <c r="I11">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J11">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>0.9305172570462223</v>
+        <v>0.474222387674</v>
       </c>
       <c r="R11">
-        <v>8.374655313416001</v>
+        <v>4.268001489066</v>
       </c>
       <c r="S11">
-        <v>0.0002115231103822502</v>
+        <v>6.898363449249214E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002115231103822502</v>
+        <v>6.898363449249214E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.651417</v>
       </c>
       <c r="I12">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J12">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>40.09117378692067</v>
+        <v>28.73466020180856</v>
       </c>
       <c r="R12">
-        <v>360.820564082286</v>
+        <v>258.611941816277</v>
       </c>
       <c r="S12">
-        <v>0.009113436332394158</v>
+        <v>0.004179940357413457</v>
       </c>
       <c r="T12">
-        <v>0.009113436332394158</v>
+        <v>0.004179940357413457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.651417</v>
       </c>
       <c r="I13">
-        <v>0.01364057374025676</v>
+        <v>0.00964209317684522</v>
       </c>
       <c r="J13">
-        <v>0.01364057374025676</v>
+        <v>0.009642093176845218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>1.670732747498111</v>
+        <v>0.6812445119767778</v>
       </c>
       <c r="R13">
-        <v>15.036594727483</v>
+        <v>6.131200607791</v>
       </c>
       <c r="S13">
-        <v>0.0003797872470308506</v>
+        <v>9.909848972910226E-05</v>
       </c>
       <c r="T13">
-        <v>0.0003797872470308507</v>
+        <v>9.909848972910223E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H14">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I14">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J14">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>134.0984839665912</v>
+        <v>584.8490053220578</v>
       </c>
       <c r="R14">
-        <v>1206.886355699321</v>
+        <v>5263.64104789852</v>
       </c>
       <c r="S14">
-        <v>0.03048296870516684</v>
+        <v>0.08507613951825753</v>
       </c>
       <c r="T14">
-        <v>0.03048296870516684</v>
+        <v>0.08507613951825753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H15">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I15">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J15">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>158.2016259402675</v>
+        <v>196.1750956339378</v>
       </c>
       <c r="R15">
-        <v>1423.814633462408</v>
+        <v>1765.57586070544</v>
       </c>
       <c r="S15">
-        <v>0.03596204125503115</v>
+        <v>0.02853697220014908</v>
       </c>
       <c r="T15">
-        <v>0.03596204125503115</v>
+        <v>0.02853697220014908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H16">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I16">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J16">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>20.24879786491833</v>
+        <v>33.63144620031778</v>
       </c>
       <c r="R16">
-        <v>182.239180784265</v>
+        <v>302.68301580286</v>
       </c>
       <c r="S16">
-        <v>0.004602911631628381</v>
+        <v>0.004892260366525573</v>
       </c>
       <c r="T16">
-        <v>0.004602911631628381</v>
+        <v>0.004892260366525573</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H17">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I17">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J17">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>16.79731255236711</v>
+        <v>10.61525312708</v>
       </c>
       <c r="R17">
-        <v>151.175812971304</v>
+        <v>95.53727814372</v>
       </c>
       <c r="S17">
-        <v>0.003818327677681118</v>
+        <v>0.001544167379687628</v>
       </c>
       <c r="T17">
-        <v>0.003818327677681118</v>
+        <v>0.001544167379687628</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H18">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I18">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J18">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>723.7092827572593</v>
+        <v>643.2123398031488</v>
       </c>
       <c r="R18">
-        <v>6513.383544815333</v>
+        <v>5788.91105822834</v>
       </c>
       <c r="S18">
-        <v>0.1645119822788185</v>
+        <v>0.09356606964018667</v>
       </c>
       <c r="T18">
-        <v>0.1645119822788185</v>
+        <v>0.09356606964018667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.09165766666666</v>
+        <v>79.47571333333333</v>
       </c>
       <c r="H19">
-        <v>192.274973</v>
+        <v>238.42714</v>
       </c>
       <c r="I19">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="J19">
-        <v>0.2462339938068688</v>
+        <v>0.2158338838643459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>30.15937634545855</v>
+        <v>15.24934951202444</v>
       </c>
       <c r="R19">
-        <v>271.434387109127</v>
+        <v>137.24414560822</v>
       </c>
       <c r="S19">
-        <v>0.006855762258542795</v>
+        <v>0.002218274759539433</v>
       </c>
       <c r="T19">
-        <v>0.006855762258542796</v>
+        <v>0.002218274759539432</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H20">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I20">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J20">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>7.717839427397444</v>
+        <v>11.86738923947244</v>
       </c>
       <c r="R20">
-        <v>69.46055484657701</v>
+        <v>106.806503155252</v>
       </c>
       <c r="S20">
-        <v>0.001754402069120121</v>
+        <v>0.001726311669280951</v>
       </c>
       <c r="T20">
-        <v>0.001754402069120122</v>
+        <v>0.001726311669280952</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H21">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I21">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J21">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>9.10506002785511</v>
+        <v>3.980662013260444</v>
       </c>
       <c r="R21">
-        <v>81.945540250696</v>
+        <v>35.82595811934399</v>
       </c>
       <c r="S21">
-        <v>0.002069741966336625</v>
+        <v>0.0005790543434859471</v>
       </c>
       <c r="T21">
-        <v>0.002069741966336625</v>
+        <v>0.0005790543434859472</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H22">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I22">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J22">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>1.165389539811667</v>
+        <v>0.6824282149984443</v>
       </c>
       <c r="R22">
-        <v>10.488505858305</v>
+        <v>6.141853934985999</v>
       </c>
       <c r="S22">
-        <v>0.0002649137545824774</v>
+        <v>9.927067927290429E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002649137545824774</v>
+        <v>9.92706792729043E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H23">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I23">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J23">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.9667444198942222</v>
+        <v>0.215398059308</v>
       </c>
       <c r="R23">
-        <v>8.700699779048</v>
+        <v>1.938582533772</v>
       </c>
       <c r="S23">
-        <v>0.0002197581883541063</v>
+        <v>3.133327607449411E-05</v>
       </c>
       <c r="T23">
-        <v>0.0002197581883541063</v>
+        <v>3.133327607449412E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H24">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I24">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J24">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>41.65201478212867</v>
+        <v>13.05166142134822</v>
       </c>
       <c r="R24">
-        <v>374.868133039158</v>
+        <v>117.464952792134</v>
       </c>
       <c r="S24">
-        <v>0.009468243231050227</v>
+        <v>0.00189858400702285</v>
       </c>
       <c r="T24">
-        <v>0.009468243231050227</v>
+        <v>0.00189858400702285</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.688700333333333</v>
+        <v>1.612671333333333</v>
       </c>
       <c r="H25">
-        <v>11.066101</v>
+        <v>4.838013999999999</v>
       </c>
       <c r="I25">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="J25">
-        <v>0.01417163244173325</v>
+        <v>0.004379565815410442</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>1.735778190622111</v>
+        <v>0.3094302369691111</v>
       </c>
       <c r="R25">
-        <v>15.622003715599</v>
+        <v>2.784872132722</v>
       </c>
       <c r="S25">
-        <v>0.000394573232289689</v>
+        <v>4.501184027329442E-05</v>
       </c>
       <c r="T25">
-        <v>0.0003945732322896891</v>
+        <v>4.501184027329442E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H26">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I26">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J26">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>245.6022074774992</v>
+        <v>1251.32401529205</v>
       </c>
       <c r="R26">
-        <v>2210.419867297493</v>
+        <v>11261.91613762845</v>
       </c>
       <c r="S26">
-        <v>0.05582974678760504</v>
+        <v>0.1820261563904169</v>
       </c>
       <c r="T26">
-        <v>0.05582974678760505</v>
+        <v>0.1820261563904168</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H27">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I27">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J27">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>289.7472619238516</v>
+        <v>419.7298894845235</v>
       </c>
       <c r="R27">
-        <v>2607.725357314664</v>
+        <v>3777.569005360712</v>
       </c>
       <c r="S27">
-        <v>0.06586470224251757</v>
+        <v>0.0610567827128377</v>
       </c>
       <c r="T27">
-        <v>0.06586470224251757</v>
+        <v>0.06105678271283769</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H28">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I28">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J28">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>37.08579923713834</v>
+        <v>71.95675450672255</v>
       </c>
       <c r="R28">
-        <v>333.772193134245</v>
+        <v>647.6107905605029</v>
       </c>
       <c r="S28">
-        <v>0.008430261283441749</v>
+        <v>0.01046732204378778</v>
       </c>
       <c r="T28">
-        <v>0.008430261283441749</v>
+        <v>0.01046732204378778</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H29">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I29">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J29">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>30.76438241895911</v>
+        <v>22.712052248434</v>
       </c>
       <c r="R29">
-        <v>276.879441770632</v>
+        <v>204.408470235906</v>
       </c>
       <c r="S29">
-        <v>0.006993290891674457</v>
+        <v>0.003303850580663456</v>
       </c>
       <c r="T29">
-        <v>0.006993290891674457</v>
+        <v>0.003303850580663456</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H30">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I30">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J30">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>1325.478052842291</v>
+        <v>1376.196318030251</v>
       </c>
       <c r="R30">
-        <v>11929.30247558062</v>
+        <v>12385.76686227226</v>
       </c>
       <c r="S30">
-        <v>0.3013047188083295</v>
+        <v>0.2001909362789817</v>
       </c>
       <c r="T30">
-        <v>0.3013047188083295</v>
+        <v>0.2001909362789817</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>117.3842696666667</v>
+        <v>170.0436656666667</v>
       </c>
       <c r="H31">
-        <v>352.152809</v>
+        <v>510.130997</v>
       </c>
       <c r="I31">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337929</v>
       </c>
       <c r="J31">
-        <v>0.4509790912329367</v>
+        <v>0.4617911969337928</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>55.23708536805456</v>
+        <v>32.62701498734789</v>
       </c>
       <c r="R31">
-        <v>497.133768312491</v>
+        <v>293.643134886131</v>
       </c>
       <c r="S31">
-        <v>0.01255637121936837</v>
+        <v>0.004746148927105303</v>
       </c>
       <c r="T31">
-        <v>0.01255637121936837</v>
+        <v>0.004746148927105303</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H32">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I32">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J32">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>68.04371794464444</v>
+        <v>370.48072944247</v>
       </c>
       <c r="R32">
-        <v>612.3934615018001</v>
+        <v>3334.32656498223</v>
       </c>
       <c r="S32">
-        <v>0.01546754641317606</v>
+        <v>0.05389266278997405</v>
       </c>
       <c r="T32">
-        <v>0.01546754641317607</v>
+        <v>0.05389266278997405</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H33">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I33">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J33">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>80.27403812071111</v>
+        <v>124.26984036484</v>
       </c>
       <c r="R33">
-        <v>722.4663430864</v>
+        <v>1118.42856328356</v>
       </c>
       <c r="S33">
-        <v>0.01824771555568548</v>
+        <v>0.01807714158797078</v>
       </c>
       <c r="T33">
-        <v>0.01824771555568548</v>
+        <v>0.01807714158797078</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H34">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I34">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J34">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>10.27456425966667</v>
+        <v>21.304306935835</v>
       </c>
       <c r="R34">
-        <v>92.47107833700001</v>
+        <v>191.738762422515</v>
       </c>
       <c r="S34">
-        <v>0.002335591063540092</v>
+        <v>0.003099070311686348</v>
       </c>
       <c r="T34">
-        <v>0.002335591063540092</v>
+        <v>0.003099070311686347</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H35">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I35">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J35">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>8.523225347022223</v>
+        <v>6.72437960217</v>
       </c>
       <c r="R35">
-        <v>76.70902812320001</v>
+        <v>60.51941641953</v>
       </c>
       <c r="S35">
-        <v>0.001937480602577819</v>
+        <v>0.0009781742843059317</v>
       </c>
       <c r="T35">
-        <v>0.00193748060257782</v>
+        <v>0.0009781742843059317</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H36">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I36">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J36">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>367.2216780774667</v>
+        <v>407.451794682365</v>
       </c>
       <c r="R36">
-        <v>3304.9951026972</v>
+        <v>3667.066152141285</v>
       </c>
       <c r="S36">
-        <v>0.08347601396808557</v>
+        <v>0.05927072700119017</v>
       </c>
       <c r="T36">
-        <v>0.08347601396808559</v>
+        <v>0.05927072700119017</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>32.52113333333333</v>
+        <v>50.344995</v>
       </c>
       <c r="H37">
-        <v>97.5634</v>
+        <v>151.034985</v>
       </c>
       <c r="I37">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465498</v>
       </c>
       <c r="J37">
-        <v>0.1249430711472629</v>
+        <v>0.1367229729465497</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>15.30335046851111</v>
+        <v>9.659912352295001</v>
       </c>
       <c r="R37">
-        <v>137.7301542166</v>
+        <v>86.939211170655</v>
       </c>
       <c r="S37">
-        <v>0.003478723544197892</v>
+        <v>0.001405196971422451</v>
       </c>
       <c r="T37">
-        <v>0.003478723544197893</v>
+        <v>0.001405196971422451</v>
       </c>
     </row>
   </sheetData>
